--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2737350.406010745</v>
+        <v>2735462.824494344</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>326.2097809358207</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>6.786859782537817</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +753,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>25.31590541686235</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>56.72699744179317</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>2.915997117160441</v>
+        <v>183.8819774006277</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>9.220846587376196</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>120.5234819888323</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>251.8021835353217</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>135.1787052649174</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>14.48345164522457</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896933</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>183.1796758467</v>
+        <v>279.1120900633771</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>59.77945773664958</v>
       </c>
       <c r="W16" t="n">
-        <v>234.9603341925732</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151919</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>108.6200406500443</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.771215851065</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>207.0920728595001</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>5.107731335946056</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>11.34239988529879</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002179</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>80.03399750504549</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>109.1385672279495</v>
+        <v>73.87710268090181</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965547</v>
+        <v>93.4122163896555</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801231</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897924</v>
+        <v>93.71057173897927</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571511</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692873</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3320,7 +3320,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3794,7 +3794,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1187.828354776384</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C2" t="n">
-        <v>818.8658378359718</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>460.6001392292213</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2635.26498762696</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>2304.202100283389</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1951.433445013275</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1577.967686752195</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1187.828354776384</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4416,7 +4416,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4428,22 +4428,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482876</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>227.4276970359519</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>456.5405636086444</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1745.334734821698</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2462.99746222939</v>
+        <v>2280.203542751141</v>
       </c>
       <c r="U5" t="n">
-        <v>2462.99746222939</v>
+        <v>2280.203542751141</v>
       </c>
       <c r="V5" t="n">
-        <v>2131.93457488582</v>
+        <v>1949.14065540757</v>
       </c>
       <c r="W5" t="n">
-        <v>2131.93457488582</v>
+        <v>1596.372000137456</v>
       </c>
       <c r="X5" t="n">
-        <v>2131.93457488582</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="Y5" t="n">
-        <v>2131.93457488582</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="X7" t="n">
-        <v>702.55736257324</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="Y7" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1606.946621408918</v>
+        <v>927.7879015331887</v>
       </c>
       <c r="C8" t="n">
-        <v>1237.984104468507</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D8" t="n">
-        <v>879.7184058617563</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E8" t="n">
-        <v>879.7184058617563</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.54646147304</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>1993.54646147304</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y8" t="n">
-        <v>1993.54646147304</v>
+        <v>1314.38774159731</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.7922583306645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>591.5848374741946</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>591.5848374741946</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>591.5848374741946</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U10" t="n">
-        <v>591.5848374741946</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="V10" t="n">
-        <v>591.5848374741946</v>
+        <v>68.57273095695493</v>
       </c>
       <c r="W10" t="n">
-        <v>591.5848374741946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>591.5848374741946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.7922583306645</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515098</v>
@@ -5054,7 +5054,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
@@ -5063,28 +5063,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1818.397748747284</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2338.698370483031</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028591</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028591</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028591</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028591</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241958</v>
@@ -5203,7 +5203,7 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471194</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.100879744681</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V13" t="n">
-        <v>835.4163915387941</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="14">
@@ -5267,22 +5267,22 @@
         <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5297,7 +5297,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5358,22 +5358,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>841.8631140141293</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028587</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>675.0071030383443</v>
       </c>
       <c r="V16" t="n">
-        <v>1133.156678913841</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W16" t="n">
-        <v>895.8230080122523</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>667.833457114235</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.0408779707049</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,10 +5513,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5534,7 +5534,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341676</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011508</v>
+        <v>898.7925182488387</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952639</v>
+        <v>898.7925182488387</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>609.3753482118782</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5750,25 +5750,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5777,19 +5777,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5832,25 +5832,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>474.7746905116405</v>
       </c>
       <c r="L21" t="n">
-        <v>901.6749225845922</v>
+        <v>721.5398184181047</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977054</v>
+        <v>1028.859951698066</v>
       </c>
       <c r="N21" t="n">
-        <v>1999.905696641086</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
         <v>97.21709146028587</v>
@@ -5911,7 +5911,7 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799365</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>964.9199289028917</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>675.7912901164499</v>
       </c>
       <c r="V22" t="n">
-        <v>755.1831334811264</v>
+        <v>675.7912901164499</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>675.7912901164499</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>447.8017392184325</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
@@ -5990,49 +5990,49 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6069,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>378.1030765138935</v>
       </c>
       <c r="L24" t="n">
-        <v>901.6749225845922</v>
+        <v>624.8682044203576</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>932.1883377003194</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>208.7516828383384</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C25" t="n">
-        <v>208.7516828383384</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028587</v>
@@ -6148,10 +6148,10 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471194</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1493.756945976139</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1269.971530765645</v>
+        <v>1176.46418745417</v>
       </c>
       <c r="U25" t="n">
-        <v>980.8428919792032</v>
+        <v>887.3355486677287</v>
       </c>
       <c r="V25" t="n">
-        <v>726.1584037733163</v>
+        <v>887.3355486677287</v>
       </c>
       <c r="W25" t="n">
-        <v>436.7412337363557</v>
+        <v>597.9183786307682</v>
       </c>
       <c r="X25" t="n">
-        <v>208.7516828383384</v>
+        <v>597.9183786307682</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.7516828383384</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6248,10 +6248,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1107.078735313012</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011504</v>
+        <v>817.9500965265709</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>817.9500965265709</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583031</v>
+        <v>817.9500965265709</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>817.9500965265709</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>597.1575173830407</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,49 +6458,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>841.8631140141293</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1841.189502980822</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2361.490124716569</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>455.1790525051554</v>
+        <v>490.7966934617685</v>
       </c>
       <c r="C31" t="n">
-        <v>342.0037348586191</v>
+        <v>490.7966934617685</v>
       </c>
       <c r="D31" t="n">
-        <v>247.6479607276539</v>
+        <v>396.4409193308034</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6479607276539</v>
+        <v>304.2886910297808</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276539</v>
+        <v>304.2886910297808</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276539</v>
+        <v>191.874234630972</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569678</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864669</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933497</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667502</v>
+        <v>671.4509053667505</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962043</v>
+        <v>997.6688721962047</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286023</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353691</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021645</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056073</v>
@@ -6658,13 +6658,13 @@
         <v>1136.33673373748</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818901</v>
+        <v>902.6804289818904</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652434</v>
+        <v>730.4517433652436</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.420029503084</v>
+        <v>565.4200295030835</v>
       </c>
     </row>
     <row r="32">
@@ -6680,37 +6680,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>148.5096761832847</v>
       </c>
       <c r="K33" t="n">
-        <v>644.6755122555218</v>
+        <v>559.3999450277973</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619858</v>
+        <v>806.1650729342614</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1113.485206214223</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6935,7 +6935,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6953,10 +6953,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
         <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7123,7 +7123,7 @@
         <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025263</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7160,64 +7160,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
         <v>559.3441472229672</v>
@@ -7315,10 +7315,10 @@
         <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,19 +7400,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7424,16 +7424,16 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103125</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
@@ -7591,28 +7591,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7831,13 +7831,13 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,25 +8772,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>199.7396287231146</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9012,22 +9012,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>360.5026862907247</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9249,13 +9249,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>358.3520020925041</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165111</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119833</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9480,28 +9480,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>188.8856946302395</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>52.49733361305221</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,22 +9717,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>91.23759968302028</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>124.3400780863225</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711639</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>104.8749102765739</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>165.9802687929755</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>9.90051268448611</v>
       </c>
       <c r="K33" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>124.340078086323</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,28 +10902,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>283.6093329825492</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>412.6002929596431</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>308.125109627204</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23464,16 +23464,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>103.0576765518773</v>
+        <v>7.125262335200205</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="W16" t="n">
-        <v>51.56266414401779</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>117.0896147389929</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0.7763452073242831</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>79.43092547709091</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>192.8130786476572</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>210.2051611730905</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>141.5135635533437</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15.49015632543087</v>
+        <v>50.75162087247863</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.043564470071</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801228</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437436</v>
+        <v>90.21779139437439</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571511</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>789187.0574408497</v>
+        <v>789187.0574408496</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>789187.0574408496</v>
+        <v>789187.0574408497</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.327398212</v>
+        <v>615781.327398213</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="F2" t="n">
         <v>586543.589606563</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>586543.5896065632</v>
+      </c>
+      <c r="H2" t="n">
         <v>586543.5896065631</v>
       </c>
-      <c r="G2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="H2" t="n">
-        <v>586543.5896065632</v>
-      </c>
       <c r="I2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="J2" t="n">
-        <v>586543.5896065625</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="K2" t="n">
-        <v>610233.2060179047</v>
+        <v>610233.2060179051</v>
       </c>
       <c r="L2" t="n">
         <v>615781.3273982124</v>
       </c>
       <c r="M2" t="n">
+        <v>615781.3273982123</v>
+      </c>
+      <c r="N2" t="n">
         <v>615781.3273982124</v>
       </c>
-      <c r="N2" t="n">
-        <v>615781.3273982123</v>
-      </c>
       <c r="O2" t="n">
+        <v>615781.3273982125</v>
+      </c>
+      <c r="P2" t="n">
         <v>615781.3273982124</v>
-      </c>
-      <c r="P2" t="n">
-        <v>615781.3273982125</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284548</v>
+        <v>44162.60530284546</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086702</v>
+        <v>10342.90680086686</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26424,37 +26424,37 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007401</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007455</v>
+        <v>7916.731656007454</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007464</v>
+        <v>7916.731656007454</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007461</v>
+        <v>7916.731656007453</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020398</v>
+        <v>26081.35417020392</v>
       </c>
       <c r="L4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732794</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732796</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871665</v>
@@ -26491,25 +26491,25 @@
         <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="O5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-204962.6785956627</v>
+        <v>-204962.6785956618</v>
       </c>
       <c r="C6" t="n">
         <v>385005.2006188823</v>
       </c>
       <c r="D6" t="n">
-        <v>385005.2006188823</v>
+        <v>385005.2006188824</v>
       </c>
       <c r="E6" t="n">
-        <v>-38520.50447505729</v>
+        <v>-38617.96360102951</v>
       </c>
       <c r="F6" t="n">
-        <v>486639.532001839</v>
+        <v>486542.0728758667</v>
       </c>
       <c r="G6" t="n">
-        <v>486639.5320018387</v>
+        <v>486542.0728758669</v>
       </c>
       <c r="H6" t="n">
-        <v>486639.5320018391</v>
+        <v>486542.0728758668</v>
       </c>
       <c r="I6" t="n">
-        <v>486639.5320018385</v>
+        <v>486542.0728758668</v>
       </c>
       <c r="J6" t="n">
-        <v>310216.3128092458</v>
+        <v>310118.8536832738</v>
       </c>
       <c r="K6" t="n">
-        <v>443361.0380146324</v>
+        <v>443342.5442766987</v>
       </c>
       <c r="L6" t="n">
-        <v>477387.795879992</v>
+        <v>477387.7958799922</v>
       </c>
       <c r="M6" t="n">
-        <v>352929.6874470218</v>
+        <v>352929.6874470217</v>
       </c>
       <c r="N6" t="n">
         <v>487730.702680859</v>
@@ -26561,7 +26561,7 @@
         <v>487730.7026808591</v>
       </c>
       <c r="P6" t="n">
-        <v>443568.0973780137</v>
+        <v>443568.0973780136</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>4.263256414560601e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964069</v>
-      </c>
       <c r="O2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541004</v>
@@ -26759,10 +26759,10 @@
         <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26796,7 +26796,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="L2" t="n">
         <v>12.92863350108378</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855682</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>39.06311083518688</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>244.4373077257515</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>120.1051426060689</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>229.5548768001846</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>213.5323232404974</v>
+        <v>32.56634295703006</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>200.3937499721748</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>209.3638067647186</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>244.7494097821752</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>155.0738622063897</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>11.4864867152404</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>272.0395466913664</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.413953810654301e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,13 +28339,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-2.384319086127909e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855686</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +31999,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32163,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>287.7526615081887</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35650,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>642.866388531833</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,7 +35808,7 @@
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879393</v>
@@ -35969,13 +35969,13 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>668.7763791429704</v>
       </c>
       <c r="N18" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315248</v>
@@ -35984,7 +35984,7 @@
         <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.580930408111</v>
       </c>
       <c r="O20" t="n">
         <v>713.1546070951473</v>
@@ -36200,28 +36200,28 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>339.4611332181788</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>334.8610358541604</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>241.8130382709596</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>434.7644551367889</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
         <v>88.01303278507416</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303323</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>438.0694836745869</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>384.9870895382561</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>253.9933015780496</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36993,19 +36993,19 @@
         <v>206.9056851584674</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084854</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341605</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491597</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403576</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
         <v>94.42895660043163</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>51.81069163939276</v>
       </c>
       <c r="K33" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37160,16 +37160,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>457.5346514843358</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>594.0337100330154</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37792,7 +37792,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>745.7948663576559</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>10.73738595686864</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>641.3196830252168</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
